--- a/NLP/File-validation/Book1.xlsx
+++ b/NLP/File-validation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Projects\NLP\File-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400077CA-253D-4E36-A84E-F5BDBA53DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847ED013-6D1A-4AEB-8B79-A74FB8482FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE2BFC06-1CD4-4BA5-A1DF-2FB367F7E886}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>skill2 years</t>
   </si>
   <si>
-    <t>skill 3</t>
-  </si>
-  <si>
     <t>skill3 years</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>15-13-2000</t>
+  </si>
+  <si>
+    <t>skill3</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,21 +593,21 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1234567890</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>44873.395833333336</v>
@@ -616,7 +616,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -628,13 +628,13 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2345678901</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>44874.395833333336</v>
@@ -657,7 +657,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -669,19 +669,19 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>3456789912</v>
@@ -708,19 +708,19 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -731,7 +731,7 @@
         <v>4567900923</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>44876.395833333336</v>
@@ -740,7 +740,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -752,19 +752,19 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -772,20 +772,20 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>5679011934</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6">
         <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -797,19 +797,19 @@
         <v>13.5</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -820,7 +820,7 @@
         <v>6790122945</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>44878.395833333336</v>
@@ -829,25 +829,25 @@
         <v>110</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7">
         <v>8</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>44879.395833333336</v>
@@ -864,7 +864,7 @@
         <v>121</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -876,13 +876,13 @@
         <v>16.5</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8">
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>7</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>901234490</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>132</v>
@@ -915,13 +915,13 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9">
         <v>8</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2">
         <v>44881.395833333336</v>
@@ -938,7 +938,7 @@
         <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -950,19 +950,19 @@
         <v>19.5</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10">
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -970,13 +970,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>7901233956</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>44882.395833333336</v>
@@ -985,7 +985,7 @@
         <v>154</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -997,13 +997,13 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1357986420</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>44883.395833333336</v>
@@ -1026,7 +1026,7 @@
         <v>165</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -1035,19 +1035,19 @@
         <v>22.5</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12">
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O12">
         <v>4</v>

--- a/NLP/File-validation/Book1.xlsx
+++ b/NLP/File-validation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Projects\NLP\File-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847ED013-6D1A-4AEB-8B79-A74FB8482FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1BDA1A-4267-4A40-8773-2D8505D28811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE2BFC06-1CD4-4BA5-A1DF-2FB367F7E886}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -530,14 +530,14 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -548,7 +548,7 @@
     <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -997,16 +997,22 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
         <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">

--- a/NLP/File-validation/Book1.xlsx
+++ b/NLP/File-validation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Projects\NLP\File-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1BDA1A-4267-4A40-8773-2D8505D28811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B79D75-8F4A-4541-A505-205A6E8FDF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE2BFC06-1CD4-4BA5-A1DF-2FB367F7E886}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_08_11_2022_09_30">Sheet1!$D$2</definedName>
+    <definedName name="_08_11_2022_09_30">Sheet1!$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>mob no</t>
   </si>
@@ -52,9 +49,6 @@
     <t>created time</t>
   </si>
   <si>
-    <t>testscore</t>
-  </si>
-  <si>
     <t>linked resume</t>
   </si>
   <si>
@@ -164,6 +158,18 @@
   </si>
   <si>
     <t>skill3</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>test score</t>
   </si>
 </sst>
 </file>
@@ -527,558 +533,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4911221D-E667-4A4C-BA30-08B032C814DC}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>44873.395833333336</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>7.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2345678901</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44874.395833333336</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>3456789912</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44875.395833333336</v>
+      </c>
+      <c r="F4">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>4567900923</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44876.395833333336</v>
+      </c>
+      <c r="F5">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1234567890</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>9.5</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>5679011934</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>13.5</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
-        <v>44873.395833333336</v>
-      </c>
-      <c r="E2">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="H2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>6790122945</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44878.395833333336</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>7.5</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44879.395833333336</v>
+      </c>
+      <c r="F8">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>16.5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
+      <c r="P8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>901234490</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>132</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>15.5</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44881.395833333336</v>
+      </c>
+      <c r="F10">
+        <v>143</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2">
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>19.5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>7901233956</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44882.395833333336</v>
+      </c>
+      <c r="F11">
+        <v>154</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
+      <c r="I11">
+        <v>18.5</v>
+      </c>
+      <c r="J11">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1357986420</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44883.395833333336</v>
+      </c>
+      <c r="F12">
+        <v>165</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>2345678901</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44874.395833333336</v>
-      </c>
-      <c r="E3">
-        <v>66</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>6.5</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>3456789912</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44875.395833333336</v>
-      </c>
-      <c r="E4">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>22.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12" t="s">
         <v>17</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4567900923</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44876.395833333336</v>
-      </c>
-      <c r="E5">
-        <v>88</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>9.5</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>5679011934</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6">
-        <v>99</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>13.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6790122945</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44878.395833333336</v>
-      </c>
-      <c r="E7">
-        <v>110</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44879.395833333336</v>
-      </c>
-      <c r="E8">
-        <v>121</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>16.5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>901234490</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>132</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>15.5</v>
-      </c>
-      <c r="I9">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44881.395833333336</v>
-      </c>
-      <c r="E10">
-        <v>143</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <v>19.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>7901233956</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44882.395833333336</v>
-      </c>
-      <c r="E11">
-        <v>154</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>18.5</v>
-      </c>
-      <c r="I11">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>1357986420</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44883.395833333336</v>
-      </c>
-      <c r="E12">
-        <v>165</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>22.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12">
+      <c r="P12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6C94477-D4E2-41E3-AA22-A1805C7F75F2}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{A403A681-5F18-4788-83FB-466E9CCDE62D}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{732AA4EC-40F7-497C-AD67-5C908EE6AED0}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{1A9CEDAD-2BBC-47ED-A46A-60869BF92A6A}"/>
-    <hyperlink ref="C5" r:id="rId5" display="xyz@outlook.com" xr:uid="{C35AC884-388D-4438-BFE4-AEDD12717688}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C07BDCA6-DEDF-4F0F-9603-27D78167E84D}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{7731FDEA-6FFF-4EA8-9227-7ED43036A2BA}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{79F030AE-904F-49E4-8837-4A8548B88E8E}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{79F90A3A-B9F5-4D64-B857-FD29FC36E77C}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{921AC965-76B6-459A-8908-C80670CB9638}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{3FB374D7-FC70-46D3-8A2E-F27B45385DF3}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{9E7460F0-8902-4581-B35C-E1FA6E2C0B70}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{E7261454-6E43-4041-AE80-50C522A1CDD9}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{C2245C7A-F997-40D7-A424-11AD54C9410E}"/>
-    <hyperlink ref="F6" r:id="rId15" xr:uid="{7C7C5903-E789-492A-84E9-A4194E3A2706}"/>
-    <hyperlink ref="F12" r:id="rId16" display="www.hij.com" xr:uid="{535EB075-E7A1-4262-9483-8238634A7AED}"/>
-    <hyperlink ref="F7" r:id="rId17" xr:uid="{B95F9028-E264-48EE-B123-D36AEBF6C05E}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{37FA9C67-BDEC-44FA-BD26-722E4355E006}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E6C94477-D4E2-41E3-AA22-A1805C7F75F2}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{A403A681-5F18-4788-83FB-466E9CCDE62D}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{732AA4EC-40F7-497C-AD67-5C908EE6AED0}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{1A9CEDAD-2BBC-47ED-A46A-60869BF92A6A}"/>
+    <hyperlink ref="D5" r:id="rId5" display="xyz@outlook.com" xr:uid="{C35AC884-388D-4438-BFE4-AEDD12717688}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{C07BDCA6-DEDF-4F0F-9603-27D78167E84D}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{7731FDEA-6FFF-4EA8-9227-7ED43036A2BA}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{79F030AE-904F-49E4-8837-4A8548B88E8E}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{79F90A3A-B9F5-4D64-B857-FD29FC36E77C}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{921AC965-76B6-459A-8908-C80670CB9638}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{3FB374D7-FC70-46D3-8A2E-F27B45385DF3}"/>
+    <hyperlink ref="G5" r:id="rId12" xr:uid="{9E7460F0-8902-4581-B35C-E1FA6E2C0B70}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{E7261454-6E43-4041-AE80-50C522A1CDD9}"/>
+    <hyperlink ref="G11" r:id="rId14" xr:uid="{C2245C7A-F997-40D7-A424-11AD54C9410E}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{7C7C5903-E789-492A-84E9-A4194E3A2706}"/>
+    <hyperlink ref="G12" r:id="rId16" display="www.hij.com" xr:uid="{535EB075-E7A1-4262-9483-8238634A7AED}"/>
+    <hyperlink ref="G7" r:id="rId17" xr:uid="{B95F9028-E264-48EE-B123-D36AEBF6C05E}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{37FA9C67-BDEC-44FA-BD26-722E4355E006}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
